--- a/Swimwear.xlsx
+++ b/Swimwear.xlsx
@@ -1,91 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o4010001\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0594ACA4-497C-4FC8-AF62-D694E86CFBC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93B6A12-E6B2-460E-B4C7-493F7E5E18A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="3435" xr2:uid="{97E41A04-D085-4DF0-B755-23DC9310ED50}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="3435" activeTab="2" xr2:uid="{97E41A04-D085-4DF0-B755-23DC9310ED50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$A$25</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$F$2:$F$25</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$G$2:$G$25</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$H$2:$H$25</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$I$1</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$I$2:$I$25</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$3:$A$25</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$1:$B$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$3:$B$25</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$25</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$C$1:$C$2</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$C$3:$C$25</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$D$1:$D$2</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$D$3:$D$25</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$E$1:$E$2</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$E$3:$E$25</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$F$1:$F$2</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$F$3:$F$25</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$G$1:$G$2</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$G$3:$G$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$H$1:$H$2</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$H$3:$H$25</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$I$1:$I$2</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$I$3:$I$25</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$A$1:$A$25</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$B$2:$B$25</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$C$2:$C$25</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$25</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$D$2:$D$25</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$E$2:$E$25</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$F$2:$F$25</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$G$2:$G$25</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$H$2:$H$25</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$I$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$I$2:$I$25</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$A$3:$A$25</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$B$1:$B$2</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$B$3:$B$25</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$C$1:$C$2</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$C$3:$C$25</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$D$1:$D$2</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$D$3:$D$25</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$E$1:$E$2</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$E$3:$E$25</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$2:$D$25</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$F$1:$F$2</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$F$3:$F$25</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$G$1:$G$2</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$G$3:$G$25</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$H$1:$H$2</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$H$3:$H$25</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$I$1:$I$2</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$I$3:$I$25</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$2:$E$25</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$F$1</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -96,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="30">
   <si>
     <t>Brand</t>
   </si>
@@ -202,18 +133,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -319,25 +244,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1807,7 +1729,669 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Brieft</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Min(Price)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$3:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2eros Thailand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baliso Brand</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Teamm8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Slw Swim</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Awesome</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Kaam </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>You and Summer</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>YAS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Noxx Wear</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Baliboy Official</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P.O.P</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sey Men</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Daas Boys</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Ryu Swimwear</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Vepo Mens</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Unlozk's</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Vnom_Official</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Summer Market</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Swimfan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Actiff Life Styleth(GOS)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Neat Sport</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Timo Trunks</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Leisure Projects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1822</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5912-47B5-B032-E82BCD312922}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Brieft</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max(Price)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$3:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2eros Thailand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baliso Brand</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Teamm8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Slw Swim</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Awesome</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Kaam </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>You and Summer</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>YAS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Noxx Wear</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Baliboy Official</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P.O.P</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sey Men</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Daas Boys</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Ryu Swimwear</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Vepo Mens</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Unlozk's</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Vnom_Official</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Summer Market</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Swimfan</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Actiff Life Styleth(GOS)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Neat Sport</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Timo Trunks</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Leisure Projects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$3:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2290</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5912-47B5-B032-E82BCD312922}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1507222207"/>
+        <c:axId val="1601773007"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1507222207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1601773007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1601773007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507222207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2350,6 +2934,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2371,6 +3471,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FF6DA37-5DA3-476D-A4EB-4F72EB1E48AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{900D9E24-876D-4AFB-A92E-7B32E4BD34A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2690,8 +3831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A471F66-80DC-46BB-B1D8-5214B245A372}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2705,50 +3846,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="5"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3228,97 +4369,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC47C78B-775B-4325-91EE-8F5C734C1F5B}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1875</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2750</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2750</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3500</v>
+      </c>
       <c r="F3" s="1">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="G3" s="1">
-        <v>3900</v>
+        <v>2500</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>990</v>
+        <v>1690</v>
       </c>
       <c r="C4" s="1">
-        <v>1490</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+        <v>2290</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1590</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1590</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -3326,176 +4475,164 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>650</v>
+        <v>1822</v>
       </c>
       <c r="C5" s="1">
-        <v>1600</v>
+        <v>2188</v>
       </c>
       <c r="D5" s="1">
-        <v>1200</v>
+        <v>2086</v>
       </c>
       <c r="E5" s="1">
-        <v>1600</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1400</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1600</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+        <v>2144</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>1888</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1938</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>990</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1690</v>
+      </c>
       <c r="D6" s="1">
-        <v>990</v>
+        <v>1690</v>
       </c>
       <c r="E6" s="1">
-        <v>1490</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+        <v>1690</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1890</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1890</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>1290</v>
+        <v>650</v>
       </c>
       <c r="C7" s="1">
-        <v>1390</v>
+        <v>1600</v>
       </c>
       <c r="D7" s="1">
-        <v>1690</v>
+        <v>1200</v>
       </c>
       <c r="E7" s="1">
-        <v>1690</v>
+        <v>1600</v>
       </c>
       <c r="F7" s="1">
-        <v>1890</v>
+        <v>1400</v>
       </c>
       <c r="G7" s="1">
-        <v>1890</v>
+        <v>1600</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1875</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2750</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2750</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3500</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2500</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2500</v>
-      </c>
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1290</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1590</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>890</v>
+        <v>990</v>
       </c>
       <c r="C9" s="1">
-        <v>890</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1290</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1400</v>
-      </c>
-      <c r="F9" s="1">
-        <v>980</v>
-      </c>
-      <c r="G9" s="1">
-        <v>980</v>
-      </c>
+        <v>1490</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1822</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2188</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2086</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2144</v>
-      </c>
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>990</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1490</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <v>1888</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1938</v>
-      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>790</v>
+        <v>1290</v>
       </c>
       <c r="C11" s="1">
-        <v>990</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+        <v>1390</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1690</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1690</v>
+      </c>
       <c r="F11" s="1">
-        <v>990</v>
+        <v>1890</v>
       </c>
       <c r="G11" s="1">
-        <v>990</v>
+        <v>1890</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
-        <v>790</v>
+        <v>890</v>
       </c>
       <c r="C12" s="1">
-        <v>790</v>
+        <v>1290</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -3505,14 +4642,14 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1">
-        <v>890</v>
-      </c>
-      <c r="C13" s="1">
-        <v>890</v>
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1250</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3523,20 +4660,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
-        <v>1690</v>
+        <v>1090</v>
       </c>
       <c r="C14" s="1">
-        <v>2290</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1590</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1590</v>
-      </c>
+        <v>1190</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3544,75 +4677,79 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
         <v>990</v>
       </c>
       <c r="C15" s="1">
-        <v>1690</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1690</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1690</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1890</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1890</v>
-      </c>
+        <v>1190</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
-        <v>1090</v>
+        <v>890</v>
       </c>
       <c r="C16" s="1">
         <v>1190</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="1">
+        <v>690</v>
+      </c>
+      <c r="G16" s="1">
+        <v>690</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
+        <v>790</v>
+      </c>
+      <c r="C17" s="1">
         <v>990</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1190</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1">
+        <v>990</v>
+      </c>
+      <c r="G17" s="1">
+        <v>990</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1">
-        <v>890</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1290</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2">
+        <v>690</v>
+      </c>
+      <c r="C18" s="2">
+        <v>990</v>
+      </c>
+      <c r="D18" s="1">
+        <v>790</v>
+      </c>
+      <c r="E18" s="1">
+        <v>790</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -3620,34 +4757,38 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1">
         <v>890</v>
       </c>
       <c r="C19" s="1">
-        <v>1190</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+        <v>890</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1290</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1400</v>
+      </c>
       <c r="F19" s="1">
-        <v>690</v>
+        <v>980</v>
       </c>
       <c r="G19" s="1">
-        <v>690</v>
+        <v>980</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1290</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1590</v>
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1">
+        <v>890</v>
+      </c>
+      <c r="C20" s="1">
+        <v>890</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -3658,34 +4799,30 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>690</v>
+        <v>890</v>
       </c>
       <c r="C21" s="2">
-        <v>990</v>
-      </c>
-      <c r="D21" s="1">
-        <v>790</v>
-      </c>
-      <c r="E21" s="1">
-        <v>790</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1250</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1250</v>
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>790</v>
+      </c>
+      <c r="C22" s="1">
+        <v>790</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3696,60 +4833,353 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>890</v>
+        <v>700</v>
       </c>
       <c r="C23" s="2">
-        <v>890</v>
+        <v>700</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="1">
+        <v>700</v>
+      </c>
+      <c r="G23" s="1">
+        <v>700</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="2">
-        <v>700</v>
-      </c>
-      <c r="C24" s="2">
-        <v>700</v>
-      </c>
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
-        <v>700</v>
+        <v>3500</v>
       </c>
       <c r="G24" s="1">
-        <v>700</v>
+        <v>3900</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
         <v>990</v>
       </c>
-      <c r="C25" s="2">
+      <c r="E25" s="1">
         <v>1490</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A3:I25">
+    <sortCondition descending="1" ref="C2"/>
+  </sortState>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927C29FB-C3B5-4C19-9E9D-C072EA0E1956}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1875</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1690</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1822</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>990</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>650</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1290</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>990</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>990</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1290</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1">
+        <v>890</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1090</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>990</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>890</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>790</v>
+      </c>
+      <c r="C17" s="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2">
+        <v>690</v>
+      </c>
+      <c r="C18" s="2">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1">
+        <v>890</v>
+      </c>
+      <c r="C19" s="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1">
+        <v>890</v>
+      </c>
+      <c r="C20" s="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2">
+        <v>890</v>
+      </c>
+      <c r="C21" s="2">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>790</v>
+      </c>
+      <c r="C22" s="1">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2">
+        <v>700</v>
+      </c>
+      <c r="C23" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>